--- a/src/ontology/Ontorat input/Ghida files/Ghida_PPIs_data.xlsx
+++ b/src/ontology/Ontorat input/Ghida files/Ghida_PPIs_data.xlsx
@@ -917,7 +917,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
